--- a/data/trans_dic/P34_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P34_R-Provincia-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.3354530807980912</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.5741932581413973</v>
+        <v>0.5741932581413974</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.3147260849825994</v>
@@ -685,7 +685,7 @@
         <v>0.2627311180650045</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.650699987555709</v>
+        <v>0.6506999875557091</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.3887511712933065</v>
@@ -697,7 +697,7 @@
         <v>0.299359788569358</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.6122788471616133</v>
+        <v>0.6122788471616132</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.3991372727924199</v>
+        <v>0.4050072765657226</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2368882665047044</v>
+        <v>0.2325165144525545</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2833876763393358</v>
+        <v>0.2836033383241136</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.5145991788888836</v>
+        <v>0.5137736611699898</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2597378378397168</v>
+        <v>0.2624418900324304</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2116984885966751</v>
+        <v>0.2111962078681403</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2083883755442273</v>
+        <v>0.2151168102381076</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.6033167087150398</v>
+        <v>0.6071045880911959</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.3418159829315429</v>
+        <v>0.3468880199743971</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.239440907148239</v>
+        <v>0.2390492626893006</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.2600020150692392</v>
+        <v>0.25934754857772</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.5775585265697544</v>
+        <v>0.5777025412352143</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.523524255088448</v>
+        <v>0.524061336689255</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3500674860632279</v>
+        <v>0.344806914196468</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3919739580972224</v>
+        <v>0.3971340211774275</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.6318327200599037</v>
+        <v>0.6257573458911377</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.3757481072455158</v>
+        <v>0.3749871991469526</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3230319938189156</v>
+        <v>0.3202178887199447</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.3196414774705215</v>
+        <v>0.321106422824691</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.6947196452815273</v>
+        <v>0.694335670216204</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.4300401165966896</v>
+        <v>0.4297976749929821</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.3157663208171946</v>
+        <v>0.3199211042012936</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.3399043155006636</v>
+        <v>0.3387462722319075</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.6499053245352453</v>
+        <v>0.647989870224937</v>
       </c>
     </row>
     <row r="7">
@@ -833,7 +833,7 @@
         <v>0.2657277398538482</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.2315178975658821</v>
+        <v>0.2315178975658822</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.3288346163141909</v>
+        <v>0.3267032514262294</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2983037523139147</v>
+        <v>0.2993871639945704</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2119769489026475</v>
+        <v>0.2147119390009808</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1974745044141955</v>
+        <v>0.1957343954410065</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2431175750296059</v>
+        <v>0.2464208015476013</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.3255533229079819</v>
+        <v>0.3269847227287656</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.2414506431133464</v>
+        <v>0.2394791329524819</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1950737930415298</v>
+        <v>0.1948275643707581</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.3008708386951973</v>
+        <v>0.2968070193931087</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.3261518042411576</v>
+        <v>0.3246931402550758</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.2359015561594247</v>
+        <v>0.2377622900187758</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.20501283497231</v>
+        <v>0.2063061002416295</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.415538131588347</v>
+        <v>0.4162622932433103</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3890552581731792</v>
+        <v>0.3933005748943599</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2906543531726836</v>
+        <v>0.2906483252774565</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2877473230567039</v>
+        <v>0.2829367785392983</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3233043937963256</v>
+        <v>0.3217478919184826</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.4123583276565479</v>
+        <v>0.4120443456152204</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.3238876739571835</v>
+        <v>0.3206159740300571</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.261898818160109</v>
+        <v>0.2561310154232752</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.3583458923695286</v>
+        <v>0.3551182298249103</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.3861069283335042</v>
+        <v>0.3827632617296827</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.2935467413363806</v>
+        <v>0.2945204081209304</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.261498530140869</v>
+        <v>0.2608666975967762</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.3186171372853883</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.3011430771518517</v>
+        <v>0.3011430771518518</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.4145079670044677</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.3931763237176705</v>
+        <v>0.3941761705771084</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2226402111675533</v>
+        <v>0.2219084830989453</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3429708761349707</v>
+        <v>0.3443009840462974</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.3397546272937629</v>
+        <v>0.3369234084394048</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.3260686605287384</v>
+        <v>0.3338205330600068</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2087026876901312</v>
+        <v>0.2110008444599084</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2707035739747976</v>
+        <v>0.2699049106177924</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.2594278801697935</v>
+        <v>0.2593870651274263</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.3775345041941359</v>
+        <v>0.3741889162523011</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.2274512385035938</v>
+        <v>0.2305970962615508</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.3202298474945344</v>
+        <v>0.3196700687582423</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.3103292605830265</v>
+        <v>0.3102372359714267</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.506774465908145</v>
+        <v>0.5097626025638818</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3258346562540976</v>
+        <v>0.3215720112117247</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.4477676881733747</v>
+        <v>0.4477272598761934</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.4445932872488362</v>
+        <v>0.4425261994511769</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.4344979695653997</v>
+        <v>0.4369645857541444</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3005875129175631</v>
+        <v>0.3082585178089395</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.370438318046743</v>
+        <v>0.3724396397033375</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3465339464078843</v>
+        <v>0.3454524540550304</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.4498945991525963</v>
+        <v>0.4519290965812608</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2960344683033264</v>
+        <v>0.3022079799342189</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.3941245140011284</v>
+        <v>0.3872518682320186</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.3758115897469509</v>
+        <v>0.3798580121678678</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.3962491732450233</v>
+        <v>0.4004663206641113</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2022293462316659</v>
+        <v>0.1993833020299051</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3195926422399243</v>
+        <v>0.3218346834645757</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2525795510700378</v>
+        <v>0.260658981981405</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.3172114107405488</v>
+        <v>0.315732006981701</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2164951462617224</v>
+        <v>0.2197844890241007</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.2216446065653374</v>
+        <v>0.2184463070546903</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1933071777891671</v>
+        <v>0.1959181326546953</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.3729864853767274</v>
+        <v>0.3682272421029886</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.2232940410331964</v>
+        <v>0.2231340796690193</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.2806882565452621</v>
+        <v>0.2814193733014721</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.240445928552953</v>
+        <v>0.2356887945836437</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.5037346980531401</v>
+        <v>0.5037613820737401</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2921736175512138</v>
+        <v>0.2926005832266336</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.4232317781228083</v>
+        <v>0.4194921609737445</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3772866544643633</v>
+        <v>0.3858156780235854</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.4161506482084305</v>
+        <v>0.4119543531654175</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3132183979427912</v>
+        <v>0.312777793118792</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.3186042248426624</v>
+        <v>0.3169336175357324</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2751199109408191</v>
+        <v>0.2711385563803901</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.4434904668099022</v>
+        <v>0.4398758206582949</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.2917154181658282</v>
+        <v>0.2904371545617676</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.3545166020253409</v>
+        <v>0.3489179995955056</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.3104141822466102</v>
+        <v>0.3076491633927814</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1621618084877651</v>
+        <v>0.1613201666374619</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2832226897994758</v>
+        <v>0.287751800809573</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1462856549183356</v>
+        <v>0.1427698267072326</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1162423112902082</v>
+        <v>0.1207569783105111</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1347901246852515</v>
+        <v>0.1381784576072246</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2500225074069465</v>
+        <v>0.2512003032511336</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1367344285678506</v>
+        <v>0.142105202300125</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1199149101076526</v>
+        <v>0.1204075123236353</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1668735762806532</v>
+        <v>0.1652777339853741</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.2823679768741854</v>
+        <v>0.2853969197901976</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1543395062458345</v>
+        <v>0.1572401232877847</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1289857609501709</v>
+        <v>0.1278575162079292</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2773383384407982</v>
+        <v>0.273031151063064</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.4134833411273131</v>
+        <v>0.4221974694171714</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2518270440068839</v>
+        <v>0.2548615345452831</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2013334599054427</v>
+        <v>0.2017323729316831</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2453056804374697</v>
+        <v>0.2499140720799453</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3723851980539918</v>
+        <v>0.3792701307930562</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.247354830004225</v>
+        <v>0.2503133304807777</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1896769724898113</v>
+        <v>0.1873223789038097</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2429089010626571</v>
+        <v>0.2392514844222876</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.3759652996982948</v>
+        <v>0.3803960412474279</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.2292677952275846</v>
+        <v>0.2313280557001982</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1839330324526167</v>
+        <v>0.1803734776376505</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.3014960272976855</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.3971438798833717</v>
+        <v>0.3971438798833715</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.4554471536554174</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.4157151313614597</v>
+        <v>0.4113780507949527</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.258044180555816</v>
+        <v>0.2512086276076592</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.3364993861184553</v>
+        <v>0.341220767925748</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.2779251377389723</v>
+        <v>0.2825330058898621</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.3759414635146739</v>
+        <v>0.3787029844287904</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.1928055432448302</v>
+        <v>0.1940939745383175</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.2447386200995749</v>
+        <v>0.2507802040247101</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.3507321003660011</v>
+        <v>0.3476581550231857</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.415744105738147</v>
+        <v>0.4122197966680743</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.2391770865085785</v>
+        <v>0.2398025516352392</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.308143825505938</v>
+        <v>0.3069233114143535</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.3289964416088891</v>
+        <v>0.3299510143830233</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.5321589420918045</v>
+        <v>0.5354053560736169</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.370450188130121</v>
+        <v>0.3731491516284307</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.461234145022643</v>
+        <v>0.4627430406723125</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.3824388607549281</v>
+        <v>0.3831266789114396</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.4980153743736802</v>
+        <v>0.4995148370613156</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.3025809893938363</v>
+        <v>0.3017196701253182</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.3585544539691681</v>
+        <v>0.3623843074957322</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.4465680065571832</v>
+        <v>0.4497223991990461</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.4966273734928646</v>
+        <v>0.500999068276155</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.3188882199782481</v>
+        <v>0.317984750178547</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.3920738928870818</v>
+        <v>0.3886484989570156</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.4026805220745717</v>
+        <v>0.4014294156126648</v>
       </c>
     </row>
     <row r="22">
@@ -1513,7 +1513,7 @@
         <v>0.4466157370041669</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.4059407184670632</v>
+        <v>0.4059407184670631</v>
       </c>
     </row>
     <row r="23">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.4025679272533979</v>
+        <v>0.4027312493458104</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.3040713527836068</v>
+        <v>0.306697977962186</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.4233408040318419</v>
+        <v>0.4265616302839683</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.3608725699714926</v>
+        <v>0.3604232988418964</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.3182076345670604</v>
+        <v>0.3207643756040199</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.2321648647532741</v>
+        <v>0.2316452924229103</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.3902345468992817</v>
+        <v>0.3897909615924398</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.3757744082997772</v>
+        <v>0.3725215273393297</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.3703089865053159</v>
+        <v>0.3705983218446225</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.2769412955594489</v>
+        <v>0.278631655908097</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.4172265812796589</v>
+        <v>0.4183239838711422</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.3795003168565613</v>
+        <v>0.3797488039169926</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.4851960590496536</v>
+        <v>0.4846876595934078</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.3842850985065935</v>
+        <v>0.3836941165338827</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.5039426778442601</v>
+        <v>0.5074393541234496</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.4452920463118174</v>
+        <v>0.4456645911522474</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.3971030121452072</v>
+        <v>0.3908349474031892</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.3022283813694979</v>
+        <v>0.3009324768630502</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.4695357448517643</v>
+        <v>0.4689701677439538</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.4436009133091892</v>
+        <v>0.4419137216566644</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.4246482400246856</v>
+        <v>0.4273400127340696</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.3306409165701591</v>
+        <v>0.3309273109848489</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.4742520858660712</v>
+        <v>0.4755949954592694</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.4333426869727184</v>
+        <v>0.4343810168366461</v>
       </c>
     </row>
     <row r="25">
@@ -1625,7 +1625,7 @@
         <v>0.3924652319727738</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.3634139913764816</v>
+        <v>0.3634139913764815</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>0.2306789209731192</v>
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.2538589848784835</v>
+        <v>0.2563515949795624</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.2997666604713329</v>
+        <v>0.3013402356699516</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.3563745001496798</v>
+        <v>0.356431597878213</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.3304138270536101</v>
+        <v>0.3284932654044556</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.2036547232457035</v>
+        <v>0.2012450774909181</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.2880133425002759</v>
+        <v>0.2885300902214524</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.2830042414035027</v>
+        <v>0.2818070564074139</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.3313005171399651</v>
+        <v>0.331351554118172</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.2384334438615303</v>
+        <v>0.2371819309602133</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.3062736789022543</v>
+        <v>0.3041064022075804</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.3298000666837654</v>
+        <v>0.331606189519669</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.3402592232370771</v>
+        <v>0.3406240907844215</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.3192164093308682</v>
+        <v>0.3223535202296028</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.3715457008374374</v>
+        <v>0.3738532468183263</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.4272700621572247</v>
+        <v>0.4263545186369896</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.4018724078927248</v>
+        <v>0.4001046795026257</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.2638629932024847</v>
+        <v>0.2627564748845425</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.3563229825499445</v>
+        <v>0.3551493541930058</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.3515947229534862</v>
+        <v>0.3516911591489862</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.3921197874812187</v>
+        <v>0.3923886033079008</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.2822085235382896</v>
+        <v>0.2818718480441191</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.3557342948827798</v>
+        <v>0.3544584086809238</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.3771543289952932</v>
+        <v>0.3798494408044019</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.3885664850241486</v>
+        <v>0.3855612521362868</v>
       </c>
     </row>
     <row r="28">
@@ -1761,7 +1761,7 @@
         <v>0.3661746016955936</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>0.3548306601547617</v>
+        <v>0.3548306601547618</v>
       </c>
       <c r="G28" s="5" t="n">
         <v>0.3125807779298274</v>
@@ -1773,7 +1773,7 @@
         <v>0.3136468105772449</v>
       </c>
       <c r="J28" s="5" t="n">
-        <v>0.3448489100775312</v>
+        <v>0.3448489100775313</v>
       </c>
       <c r="K28" s="5" t="n">
         <v>0.3495015724036676</v>
@@ -1796,40 +1796,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.3693203380989286</v>
+        <v>0.3717388337818524</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.3002672945178352</v>
+        <v>0.2988294681374903</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.3490777234842819</v>
+        <v>0.3480690443253909</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.3381419319122425</v>
+        <v>0.336841231192187</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.2974546558524602</v>
+        <v>0.2973140839825996</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.2781805060108101</v>
+        <v>0.2775779116784686</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.2967928495807023</v>
+        <v>0.2985981326533309</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.3299383697459097</v>
+        <v>0.3304517592286549</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.3383829094224306</v>
+        <v>0.3364755464362655</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.2927839713769637</v>
+        <v>0.2938800589553052</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.3280409937916782</v>
+        <v>0.3279181109927571</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.3389720938003011</v>
+        <v>0.339502133854407</v>
       </c>
     </row>
     <row r="30">
@@ -1840,40 +1840,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.4046164673415439</v>
+        <v>0.4066347531794666</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.3334530710047529</v>
+        <v>0.3334010025642102</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.3825690033005749</v>
+        <v>0.3818921747083792</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.3744234534685325</v>
+        <v>0.3740889906060939</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.3283892909791853</v>
+        <v>0.3279646088152955</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.3108101819283514</v>
+        <v>0.3088344503183942</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.329911820625828</v>
+        <v>0.3291933258380119</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.3571596833465077</v>
+        <v>0.3588611141365993</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.3606263779104635</v>
+        <v>0.3608071005435427</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.3157109080424497</v>
+        <v>0.3154798960279724</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.3510897375620266</v>
+        <v>0.3505141753951386</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.3601177515336724</v>
+        <v>0.3615944727619541</v>
       </c>
     </row>
     <row r="31">
@@ -2148,40 +2148,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>107607</v>
+        <v>109189</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>67018</v>
+        <v>65781</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>82481</v>
+        <v>82543</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>164077</v>
+        <v>163814</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>67749</v>
+        <v>68455</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>58446</v>
+        <v>58307</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>59765</v>
+        <v>61695</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>190685</v>
+        <v>191882</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>181312</v>
+        <v>184002</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>133845</v>
+        <v>133626</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>150242</v>
+        <v>149864</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>366695</v>
+        <v>366787</v>
       </c>
     </row>
     <row r="7">
@@ -2192,40 +2192,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>141141</v>
+        <v>141286</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>99037</v>
+        <v>97549</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>114085</v>
+        <v>115587</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>201457</v>
+        <v>199520</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>98009</v>
+        <v>97811</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>89183</v>
+        <v>88406</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>91673</v>
+        <v>92093</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>219574</v>
+        <v>219452</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>228109</v>
+        <v>227980</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>176510</v>
+        <v>178832</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>196414</v>
+        <v>195745</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>412629</v>
+        <v>411413</v>
       </c>
     </row>
     <row r="8">
@@ -2328,40 +2328,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>160768</v>
+        <v>159726</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>150516</v>
+        <v>151063</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>106534</v>
+        <v>107909</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>102347</v>
+        <v>101446</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>122282</v>
+        <v>123943</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>169835</v>
+        <v>170582</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>126299</v>
+        <v>125268</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>106349</v>
+        <v>106215</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>298427</v>
+        <v>294396</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>334715</v>
+        <v>333218</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>241955</v>
+        <v>243863</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>218022</v>
+        <v>219398</v>
       </c>
     </row>
     <row r="11">
@@ -2372,40 +2372,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>203158</v>
+        <v>203512</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>196307</v>
+        <v>198449</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>146076</v>
+        <v>146073</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>149134</v>
+        <v>146641</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>162613</v>
+        <v>161831</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>215120</v>
+        <v>214956</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>169420</v>
+        <v>167709</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>142781</v>
+        <v>139636</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>355435</v>
+        <v>352233</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>396245</v>
+        <v>392813</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>301079</v>
+        <v>302078</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>278092</v>
+        <v>277421</v>
       </c>
     </row>
     <row r="12">
@@ -2508,40 +2508,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>124895</v>
+        <v>125212</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>71842</v>
+        <v>71606</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>109259</v>
+        <v>109682</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>107360</v>
+        <v>106465</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>109367</v>
+        <v>111967</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>71172</v>
+        <v>71956</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>90756</v>
+        <v>90488</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>92294</v>
+        <v>92279</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>246556</v>
+        <v>244371</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>150960</v>
+        <v>153048</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>209374</v>
+        <v>209008</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>208464</v>
+        <v>208402</v>
       </c>
     </row>
     <row r="15">
@@ -2552,40 +2552,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>160980</v>
+        <v>161929</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>105141</v>
+        <v>103766</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>142643</v>
+        <v>142630</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>140488</v>
+        <v>139835</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>145736</v>
+        <v>146563</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>102506</v>
+        <v>105122</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>124193</v>
+        <v>124864</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>123282</v>
+        <v>122897</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>293812</v>
+        <v>295140</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>196479</v>
+        <v>200576</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>257688</v>
+        <v>253195</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>252452</v>
+        <v>255170</v>
       </c>
     </row>
     <row r="16">
@@ -2688,40 +2688,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>141787</v>
+        <v>143296</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>75630</v>
+        <v>74566</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>117598</v>
+        <v>118423</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>93846</v>
+        <v>96848</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>117476</v>
+        <v>116928</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>83588</v>
+        <v>84858</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>85381</v>
+        <v>84149</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>81568</v>
+        <v>82670</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>271595</v>
+        <v>268129</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>169721</v>
+        <v>169599</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>211408</v>
+        <v>211959</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>190797</v>
+        <v>187022</v>
       </c>
     </row>
     <row r="19">
@@ -2732,40 +2732,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>180248</v>
+        <v>180257</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>109268</v>
+        <v>109427</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>155733</v>
+        <v>154357</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>140181</v>
+        <v>143350</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>154117</v>
+        <v>152563</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>120932</v>
+        <v>120762</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>122731</v>
+        <v>122088</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>116090</v>
+        <v>114410</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>322933</v>
+        <v>320301</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>221726</v>
+        <v>220755</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>267014</v>
+        <v>262797</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>246317</v>
+        <v>244123</v>
       </c>
     </row>
     <row r="20">
@@ -2868,40 +2868,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>32679</v>
+        <v>32509</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>59636</v>
+        <v>60589</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>30537</v>
+        <v>29803</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>23907</v>
+        <v>24835</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>27992</v>
+        <v>28695</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>54903</v>
+        <v>55161</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>29888</v>
+        <v>31062</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>27102</v>
+        <v>27214</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>68282</v>
+        <v>67630</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>121461</v>
+        <v>122764</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>65955</v>
+        <v>67195</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>55680</v>
+        <v>55193</v>
       </c>
     </row>
     <row r="23">
@@ -2912,40 +2912,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>55889</v>
+        <v>55021</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>87063</v>
+        <v>88898</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>52569</v>
+        <v>53202</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>41407</v>
+        <v>41489</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>50942</v>
+        <v>51899</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>81772</v>
+        <v>83284</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>54069</v>
+        <v>54715</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>42869</v>
+        <v>42337</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>99395</v>
+        <v>97899</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>161722</v>
+        <v>163628</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>97975</v>
+        <v>98855</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>79400</v>
+        <v>77863</v>
       </c>
     </row>
     <row r="24">
@@ -3048,40 +3048,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>112157</v>
+        <v>110987</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>70699</v>
+        <v>68826</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>85946</v>
+        <v>87152</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>75236</v>
+        <v>76484</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>103180</v>
+        <v>103938</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>53992</v>
+        <v>54352</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>66029</v>
+        <v>67659</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>92506</v>
+        <v>91695</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>226269</v>
+        <v>224351</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>132507</v>
+        <v>132853</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>161839</v>
+        <v>161198</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>175834</v>
+        <v>176345</v>
       </c>
     </row>
     <row r="27">
@@ -3092,40 +3092,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>143572</v>
+        <v>144448</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>101496</v>
+        <v>102236</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>117805</v>
+        <v>118191</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>103529</v>
+        <v>103715</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>136684</v>
+        <v>137096</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>84732</v>
+        <v>84491</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>96735</v>
+        <v>97769</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>117782</v>
+        <v>118614</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>270289</v>
+        <v>272669</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>176668</v>
+        <v>176167</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>205920</v>
+        <v>204121</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>215215</v>
+        <v>214547</v>
       </c>
     </row>
     <row r="28">
@@ -3228,40 +3228,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>243000</v>
+        <v>243099</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>200313</v>
+        <v>202044</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>275273</v>
+        <v>277367</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>254402</v>
+        <v>254085</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>199635</v>
+        <v>201239</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>159383</v>
+        <v>159026</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>268003</v>
+        <v>267699</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>286171</v>
+        <v>283694</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>455850</v>
+        <v>456206</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>372563</v>
+        <v>374837</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>557838</v>
+        <v>559305</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>556543</v>
+        <v>556907</v>
       </c>
     </row>
     <row r="31">
@@ -3272,40 +3272,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>292877</v>
+        <v>292570</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>253156</v>
+        <v>252767</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>327683</v>
+        <v>329957</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>313915</v>
+        <v>314177</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>249131</v>
+        <v>245199</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>207482</v>
+        <v>206593</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>322465</v>
+        <v>322077</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>337824</v>
+        <v>336539</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>522741</v>
+        <v>526055</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>444804</v>
+        <v>445190</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>634082</v>
+        <v>635877</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>635503</v>
+        <v>637026</v>
       </c>
     </row>
     <row r="32">
@@ -3408,40 +3408,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>186397</v>
+        <v>188227</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>232492</v>
+        <v>233713</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>275666</v>
+        <v>275711</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>262902</v>
+        <v>261374</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>157654</v>
+        <v>155789</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>236618</v>
+        <v>237043</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>232958</v>
+        <v>231973</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>272787</v>
+        <v>272829</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>359648</v>
+        <v>357760</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>489159</v>
+        <v>485698</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>526589</v>
+        <v>529473</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>550899</v>
+        <v>551490</v>
       </c>
     </row>
     <row r="35">
@@ -3452,40 +3452,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>234386</v>
+        <v>236689</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>288162</v>
+        <v>289952</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>330506</v>
+        <v>329798</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>319759</v>
+        <v>318353</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>204263</v>
+        <v>203406</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>292738</v>
+        <v>291774</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>289419</v>
+        <v>289498</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>322865</v>
+        <v>323086</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>425678</v>
+        <v>425170</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>568154</v>
+        <v>566117</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>602199</v>
+        <v>606502</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>629112</v>
+        <v>624246</v>
       </c>
     </row>
     <row r="36">
@@ -3588,40 +3588,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>1197769</v>
+        <v>1205613</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>1021821</v>
+        <v>1016928</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>1175723</v>
+        <v>1172326</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>1184066</v>
+        <v>1179511</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>997421</v>
+        <v>996949</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>982689</v>
+        <v>980561</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>1047285</v>
+        <v>1053655</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>1225276</v>
+        <v>1227183</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>2232094</v>
+        <v>2219513</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>2030632</v>
+        <v>2038234</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>2262419</v>
+        <v>2261572</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>2445797</v>
+        <v>2449622</v>
       </c>
     </row>
     <row r="39">
@@ -3632,40 +3632,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>1312240</v>
+        <v>1318786</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>1134753</v>
+        <v>1134576</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>1288525</v>
+        <v>1286245</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>1311112</v>
+        <v>1309941</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>1101150</v>
+        <v>1099726</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>1097956</v>
+        <v>1090976</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>1164151</v>
+        <v>1161616</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>1326367</v>
+        <v>1332685</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>2378820</v>
+        <v>2380012</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>2189644</v>
+        <v>2188042</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>2421381</v>
+        <v>2417411</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>2598370</v>
+        <v>2609025</v>
       </c>
     </row>
     <row r="40">
